--- a/Acquisition/0 - Acquisition Template.xlsx
+++ b/Acquisition/0 - Acquisition Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndunc\Desktop\housing\Acquisition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D4E82D-0CF7-47FA-844F-C22D26A2029F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FB326C-BE1F-4641-A629-D16BC6337D7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{8A3EC10F-4D69-41A4-B744-5A156E64689F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{8A3EC10F-4D69-41A4-B744-5A156E64689F}"/>
   </bookViews>
   <sheets>
     <sheet name="Assumptions" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Month</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>Repitions</t>
+  </si>
+  <si>
+    <t>Furnace</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3970331C-664D-4D51-BCB2-5138108DAB05}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -567,21 +567,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -590,7 +590,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -599,7 +599,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="7">
         <v>0.06</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="11">
         <v>100</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -624,7 +624,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="10">
         <v>200000</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="7">
         <v>3.4000000000000002E-2</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="8">
         <v>30</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="8">
         <v>25000</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -665,10 +665,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="8">
         <v>5.0000000000000001E-3</v>
@@ -679,15 +679,15 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -698,10 +698,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="8">
         <v>6</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="8">
         <v>12</v>
@@ -720,10 +720,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="8">
         <v>3</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="8">
         <v>12</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="8">
         <v>1800</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -756,10 +756,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="8">
         <v>2.1899999999999999E-2</v>
@@ -770,10 +770,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="8">
         <v>100</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="8">
         <v>300</v>
@@ -798,10 +798,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="8">
         <v>0</v>
@@ -812,10 +812,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="8">
         <v>0</v>
@@ -837,10 +837,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FC10AC-C97F-4C6D-A668-74EF750BC308}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="C26:D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -850,13 +850,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>-30000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>-65000</v>
       </c>
     </row>
   </sheetData>
